--- a/biology/Biologie cellulaire et moléculaire/Gène_rapporteur/Gène_rapporteur.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Gène_rapporteur/Gène_rapporteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A8ne_rapporteur</t>
+          <t>Gène_rapporteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un gène rapporteur est un gène dont le produit (protéine) possède une caractéristique lui permettant d'être observé en laboratoire (fluorescence, activité enzymatique détectable). Les gènes rapporteurs sont utilisés pour permettre de visualiser ou mesurer l'expression d'un gène d'intérêt, pour cela le gène rapporteur peut être fusionné au gène étudié, ou mis sous le contrôle du promoteur de ce dernier.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A8ne_rapporteur</t>
+          <t>Gène_rapporteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les gènes rapporteurs doivent obéir à 3 conditions :
 être étrangers au génome de l'organisme modifié afin que leur produit n'intervienne pas dans le métabolisme
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A8ne_rapporteur</t>
+          <t>Gène_rapporteur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Diversité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les gènes rapporteurs peuvent être des gènes codant des protéines fluorescentes ou des enzymes dont l'action provoquera l'apparition d'un produit coloré.
 la bioluminescence avec la :
